--- a/structure_conditional.xlsx
+++ b/structure_conditional.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Text Analysis\TextAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96111F18-8ED2-44D5-A5BE-F6C0E3A36ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -62,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,16 +400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,354 +439,354 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.8177905308464848E-2</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="C2">
-        <v>7.3542402826855119E-2</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="D2">
-        <v>0.15744843635436259</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="E2">
-        <v>7.534095423048065E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F2">
-        <v>0.24359414041448241</v>
+        <v>0.2650862068965517</v>
       </c>
       <c r="G2">
-        <v>1.235383579745194E-2</v>
+        <v>0.01378676470588235</v>
       </c>
       <c r="H2">
-        <v>9.823544903871477E-2</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="I2">
-        <v>2.6157269224507521E-2</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J2">
-        <v>6.8170519512801397E-2</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="K2">
-        <v>5.1782942462224008E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1159929701230228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.9139167862266855E-2</v>
+        <v>0.056</v>
       </c>
       <c r="C3">
-        <v>3.222909305064782E-2</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="D3">
-        <v>0.128470783257356</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="E3">
-        <v>0.11652028070794899</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F3">
-        <v>1.530220632665393E-2</v>
+        <v>0.01508620689655172</v>
       </c>
       <c r="G3">
-        <v>0.35084395023560799</v>
+        <v>0.3106617647058824</v>
       </c>
       <c r="H3">
-        <v>0.14063734527258359</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="I3">
-        <v>4.0429804091821793E-2</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="J3">
-        <v>5.3815560526969917E-2</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="K3">
-        <v>0.17271892125909419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1933216168717047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.724533715925395E-2</v>
+        <v>0.008</v>
       </c>
       <c r="C4">
-        <v>2.1157243816254421E-2</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="D4">
-        <v>0.11951289489623509</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="E4">
-        <v>0.12141942887407869</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="F4">
-        <v>2.454558816324531E-2</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="G4">
-        <v>4.5401281507890988E-2</v>
+        <v>0.02757352941176471</v>
       </c>
       <c r="H4">
-        <v>1.5801948907031869E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.6286427524827694E-3</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="J4">
-        <v>5.6466981522909937E-2</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="K4">
-        <v>0.14543361878715561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.09666080843585237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.7618364418938309E-2</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="C5">
-        <v>2.1054181389870441E-3</v>
+        <v>0.001763668430335097</v>
       </c>
       <c r="D5">
-        <v>1.721444738436036E-2</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="E5">
-        <v>1.191684689058569E-3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.0778501788251431E-3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.1181031688648436E-2</v>
+        <v>0.08547794117647059</v>
       </c>
       <c r="H5">
-        <v>4.8722675796681589E-2</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="I5">
-        <v>6.674987789656482E-3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.2142679592344019E-3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.2945735615556E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0140597539543058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.9885222381635578E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4123822143698469</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="D6">
-        <v>6.9176575600114767E-2</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="E6">
-        <v>0.13258595577525711</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="F6">
-        <v>2.6293011938007281E-2</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="G6">
-        <v>4.0714054202298733E-2</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="H6">
-        <v>2.2122728469844619E-2</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="I6">
-        <v>0.1751234601400119</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J6">
-        <v>2.3489932885906041E-2</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="K6">
-        <v>0.14446216064960979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1687170474516696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.65457675753228117</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>0.1738221436984688</v>
+        <v>0.3033509700176367</v>
       </c>
       <c r="D7">
-        <v>3.659663999489942E-2</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="E7">
-        <v>0.16493798825969899</v>
+        <v>0.4276315789473684</v>
       </c>
       <c r="F7">
-        <v>0.56748811915143793</v>
+        <v>0.5711206896551724</v>
       </c>
       <c r="G7">
-        <v>0.13187813209005461</v>
+        <v>0.2840073529411765</v>
       </c>
       <c r="H7">
-        <v>0.51461680273900445</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="I7">
-        <v>0.11683942041569439</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J7">
-        <v>0.19013588532604189</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="K7">
-        <v>6.4464694888229521E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1353251318101933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.2223816355810616E-3</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C8">
-        <v>1.5326855123674909E-2</v>
+        <v>0.02292768959435626</v>
       </c>
       <c r="D8">
-        <v>8.1290445981701681E-3</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="E8">
-        <v>1.354989627929558E-2</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="F8">
-        <v>1.5726813972857769E-2</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="G8">
-        <v>2.293749532523873E-3</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="H8">
-        <v>1.2641559125625489E-2</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="I8">
-        <v>4.8298692136538772E-3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2.3821360510398542E-3</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="K8">
-        <v>6.4095118422858831E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.005272407732864675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.6714490674318508E-2</v>
+        <v>0.04266666666666667</v>
       </c>
       <c r="C9">
-        <v>8.2597173144876319E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.6787911632503417E-2</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E9">
-        <v>1.5491900957761401E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.6820995214998451E-3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>7.3948490363758751E-2</v>
+        <v>0.04963235294117647</v>
       </c>
       <c r="H9">
-        <v>2.6336581511719779E-2</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="I9">
-        <v>7.6518152710696261E-3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.324136216753666E-2</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="K9">
-        <v>8.4041688225293815E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.070298769771529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.893830703012913E-2</v>
+        <v>0.008</v>
       </c>
       <c r="C10">
-        <v>0.2148409893992933</v>
+        <v>0.09347442680776014</v>
       </c>
       <c r="D10">
-        <v>7.1184927794956804E-2</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E10">
-        <v>0.13452796045372289</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="F10">
-        <v>2.4643574543138501E-2</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="G10">
-        <v>4.593732080081777E-2</v>
+        <v>0.015625</v>
       </c>
       <c r="H10">
-        <v>1.7645509612852248E-2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1056059043794432</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J10">
-        <v>1.980280056342696E-2</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="K10">
-        <v>0.134314646843289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02987697715289982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.1994261119081782E-2</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C11">
-        <v>4.6186690223792702E-2</v>
+        <v>0.04409171075837742</v>
       </c>
       <c r="D11">
-        <v>0.35538270266823929</v>
+        <v>0.2397260273972603</v>
       </c>
       <c r="E11">
-        <v>0.22416913095290639</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="F11">
-        <v>7.9613933663220809E-2</v>
+        <v>0.1142241379310345</v>
       </c>
       <c r="G11">
-        <v>0.2249245805180882</v>
+        <v>0.1580882352941176</v>
       </c>
       <c r="H11">
-        <v>0.10323939952594149</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.50800455852824655</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J11">
-        <v>0.55628055348413286</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="K11">
-        <v>0.18332048615144189</v>
+        <v>0.1704745166959578</v>
       </c>
     </row>
   </sheetData>

--- a/structure_conditional.xlsx
+++ b/structure_conditional.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Text Analysis\TextAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96111F18-8ED2-44D5-A5BE-F6C0E3A36ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +126,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,354 +498,354 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07733333333333334</v>
+        <v>6.8177905308464848E-2</v>
       </c>
       <c r="C2">
-        <v>0.1322751322751323</v>
+        <v>7.3542402826855119E-2</v>
       </c>
       <c r="D2">
-        <v>0.1986301369863014</v>
+        <v>0.15744843635436259</v>
       </c>
       <c r="E2">
-        <v>0.125</v>
+        <v>7.534095423048065E-2</v>
       </c>
       <c r="F2">
-        <v>0.2650862068965517</v>
+        <v>0.24359414041448241</v>
       </c>
       <c r="G2">
-        <v>0.01378676470588235</v>
+        <v>1.235383579745194E-2</v>
       </c>
       <c r="H2">
-        <v>0.07246376811594203</v>
+        <v>9.823544903871477E-2</v>
       </c>
       <c r="I2">
-        <v>0.05128205128205128</v>
+        <v>2.6157269224507521E-2</v>
       </c>
       <c r="J2">
-        <v>0.07874015748031496</v>
+        <v>6.8170519512801397E-2</v>
       </c>
       <c r="K2">
-        <v>0.1159929701230228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>5.1782942462224008E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.056</v>
+        <v>9.9139167862266855E-2</v>
       </c>
       <c r="C3">
-        <v>0.02116402116402116</v>
+        <v>3.222909305064782E-2</v>
       </c>
       <c r="D3">
-        <v>0.1643835616438356</v>
+        <v>0.128470783257356</v>
       </c>
       <c r="E3">
-        <v>0.02631578947368421</v>
+        <v>0.11652028070794899</v>
       </c>
       <c r="F3">
-        <v>0.01508620689655172</v>
+        <v>1.530220632665393E-2</v>
       </c>
       <c r="G3">
-        <v>0.3106617647058824</v>
+        <v>0.35084395023560799</v>
       </c>
       <c r="H3">
-        <v>0.1159420289855072</v>
+        <v>0.14063734527258359</v>
       </c>
       <c r="I3">
-        <v>0.03418803418803419</v>
+        <v>4.0429804091821793E-2</v>
       </c>
       <c r="J3">
-        <v>0.03937007874015748</v>
+        <v>5.3815560526969917E-2</v>
       </c>
       <c r="K3">
-        <v>0.1933216168717047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.17271892125909419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008</v>
+        <v>1.724533715925395E-2</v>
       </c>
       <c r="C4">
-        <v>0.01058201058201058</v>
+        <v>2.1157243816254421E-2</v>
       </c>
       <c r="D4">
-        <v>0.08904109589041095</v>
+        <v>0.11951289489623509</v>
       </c>
       <c r="E4">
-        <v>0.08552631578947369</v>
+        <v>0.12141942887407869</v>
       </c>
       <c r="F4">
-        <v>0.01293103448275862</v>
+        <v>2.454558816324531E-2</v>
       </c>
       <c r="G4">
-        <v>0.02757352941176471</v>
+        <v>4.5401281507890988E-2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.5801948907031869E-2</v>
       </c>
       <c r="I4">
-        <v>0.0170940170940171</v>
+        <v>8.6286427524827694E-3</v>
       </c>
       <c r="J4">
-        <v>0.03937007874015748</v>
+        <v>5.6466981522909937E-2</v>
       </c>
       <c r="K4">
-        <v>0.09666080843585237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.14543361878715561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03466666666666667</v>
+        <v>3.7618364418938309E-2</v>
       </c>
       <c r="C5">
-        <v>0.001763668430335097</v>
+        <v>2.1054181389870441E-3</v>
       </c>
       <c r="D5">
-        <v>0.03424657534246575</v>
+        <v>1.721444738436036E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.191684689058569E-3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.0778501788251431E-3</v>
       </c>
       <c r="G5">
-        <v>0.08547794117647059</v>
+        <v>7.1181031688648436E-2</v>
       </c>
       <c r="H5">
-        <v>0.04347826086956522</v>
+        <v>4.8722675796681589E-2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6.674987789656482E-3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.2142679592344019E-3</v>
       </c>
       <c r="K5">
-        <v>0.0140597539543058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>1.2945735615556E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.9885222381635578E-2</v>
       </c>
       <c r="C6">
-        <v>0.3703703703703703</v>
+        <v>0.4123822143698469</v>
       </c>
       <c r="D6">
-        <v>0.1232876712328767</v>
+        <v>6.9176575600114767E-2</v>
       </c>
       <c r="E6">
-        <v>0.09868421052631579</v>
+        <v>0.13258595577525711</v>
       </c>
       <c r="F6">
-        <v>0.004310344827586207</v>
+        <v>2.6293011938007281E-2</v>
       </c>
       <c r="G6">
-        <v>0.02573529411764706</v>
+        <v>4.0714054202298733E-2</v>
       </c>
       <c r="H6">
-        <v>0.02898550724637681</v>
+        <v>2.2122728469844619E-2</v>
       </c>
       <c r="I6">
-        <v>0.1538461538461539</v>
+        <v>0.1751234601400119</v>
       </c>
       <c r="J6">
-        <v>0.007874015748031496</v>
+        <v>2.3489932885906041E-2</v>
       </c>
       <c r="K6">
-        <v>0.1687170474516696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.14446216064960979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.65457675753228117</v>
       </c>
       <c r="C7">
-        <v>0.3033509700176367</v>
+        <v>0.1738221436984688</v>
       </c>
       <c r="D7">
-        <v>0.07534246575342465</v>
+        <v>3.659663999489942E-2</v>
       </c>
       <c r="E7">
-        <v>0.4276315789473684</v>
+        <v>0.16493798825969899</v>
       </c>
       <c r="F7">
-        <v>0.5711206896551724</v>
+        <v>0.56748811915143793</v>
       </c>
       <c r="G7">
-        <v>0.2840073529411765</v>
+        <v>0.13187813209005461</v>
       </c>
       <c r="H7">
-        <v>0.6956521739130435</v>
+        <v>0.51461680273900445</v>
       </c>
       <c r="I7">
-        <v>0.1282051282051282</v>
+        <v>0.11683942041569439</v>
       </c>
       <c r="J7">
-        <v>0.3700787401574803</v>
+        <v>0.19013588532604189</v>
       </c>
       <c r="K7">
-        <v>0.1353251318101933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>6.4464694888229521E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01333333333333333</v>
+        <v>5.2223816355810616E-3</v>
       </c>
       <c r="C8">
-        <v>0.02292768959435626</v>
+        <v>1.5326855123674909E-2</v>
       </c>
       <c r="D8">
-        <v>0.02054794520547945</v>
+        <v>8.1290445981701681E-3</v>
       </c>
       <c r="E8">
-        <v>0.0131578947368421</v>
+        <v>1.354989627929558E-2</v>
       </c>
       <c r="F8">
-        <v>0.008620689655172414</v>
+        <v>1.5726813972857769E-2</v>
       </c>
       <c r="G8">
-        <v>0.02941176470588235</v>
+        <v>2.293749532523873E-3</v>
       </c>
       <c r="H8">
-        <v>0.02898550724637681</v>
+        <v>1.2641559125625489E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.8298692136538772E-3</v>
       </c>
       <c r="J8">
-        <v>0.007874015748031496</v>
+        <v>2.3821360510398542E-3</v>
       </c>
       <c r="K8">
-        <v>0.005272407732864675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>6.4095118422858831E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04266666666666667</v>
+        <v>4.6714490674318508E-2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8.2597173144876319E-3</v>
       </c>
       <c r="D9">
-        <v>0.0273972602739726</v>
+        <v>3.6787911632503417E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.5491900957761401E-2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.6820995214998451E-3</v>
       </c>
       <c r="G9">
-        <v>0.04963235294117647</v>
+        <v>7.3948490363758751E-2</v>
       </c>
       <c r="H9">
-        <v>0.01449275362318841</v>
+        <v>2.6336581511719779E-2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.6518152710696261E-3</v>
       </c>
       <c r="J9">
-        <v>0.01574803149606299</v>
+        <v>2.324136216753666E-2</v>
       </c>
       <c r="K9">
-        <v>0.070298769771529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>8.4041688225293815E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.008</v>
+        <v>1.893830703012913E-2</v>
       </c>
       <c r="C10">
-        <v>0.09347442680776014</v>
+        <v>0.2148409893992933</v>
       </c>
       <c r="D10">
-        <v>0.0273972602739726</v>
+        <v>7.1184927794956804E-2</v>
       </c>
       <c r="E10">
-        <v>0.03289473684210526</v>
+        <v>0.13452796045372289</v>
       </c>
       <c r="F10">
-        <v>0.008620689655172414</v>
+        <v>2.4643574543138501E-2</v>
       </c>
       <c r="G10">
-        <v>0.015625</v>
+        <v>4.593732080081777E-2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.7645509612852248E-2</v>
       </c>
       <c r="I10">
-        <v>0.07692307692307693</v>
+        <v>0.1056059043794432</v>
       </c>
       <c r="J10">
-        <v>0.01574803149606299</v>
+        <v>1.980280056342696E-2</v>
       </c>
       <c r="K10">
-        <v>0.02987697715289982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.134314646843289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02666666666666667</v>
+        <v>3.1994261119081782E-2</v>
       </c>
       <c r="C11">
-        <v>0.04409171075837742</v>
+        <v>4.6186690223792702E-2</v>
       </c>
       <c r="D11">
-        <v>0.2397260273972603</v>
+        <v>0.35538270266823929</v>
       </c>
       <c r="E11">
-        <v>0.1907894736842105</v>
+        <v>0.22416913095290639</v>
       </c>
       <c r="F11">
-        <v>0.1142241379310345</v>
+        <v>7.9613933663220809E-2</v>
       </c>
       <c r="G11">
-        <v>0.1580882352941176</v>
+        <v>0.2249245805180882</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.10323939952594149</v>
       </c>
       <c r="I11">
-        <v>0.5384615384615384</v>
+        <v>0.50800455852824655</v>
       </c>
       <c r="J11">
-        <v>0.4251968503937008</v>
+        <v>0.55628055348413286</v>
       </c>
       <c r="K11">
-        <v>0.1704745166959578</v>
+        <v>0.18332048615144189</v>
       </c>
     </row>
   </sheetData>

--- a/structure_conditional.xlsx
+++ b/structure_conditional.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Text Analysis\TextAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96111F18-8ED2-44D5-A5BE-F6C0E3A36ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -62,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,16 +400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,354 +439,354 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.8177905308464848E-2</v>
+        <v>0.06076039660460803</v>
       </c>
       <c r="C2">
-        <v>7.3542402826855119E-2</v>
+        <v>0.06058537527771517</v>
       </c>
       <c r="D2">
-        <v>0.15744843635436259</v>
+        <v>0.1456785265674894</v>
       </c>
       <c r="E2">
-        <v>7.534095423048065E-2</v>
+        <v>0.06783992864371602</v>
       </c>
       <c r="F2">
-        <v>0.24359414041448241</v>
+        <v>0.2176772729308826</v>
       </c>
       <c r="G2">
-        <v>1.235383579745194E-2</v>
+        <v>0.01201143624070241</v>
       </c>
       <c r="H2">
-        <v>9.823544903871477E-2</v>
+        <v>0.0846793930494371</v>
       </c>
       <c r="I2">
-        <v>2.6157269224507521E-2</v>
+        <v>0.01774288696283523</v>
       </c>
       <c r="J2">
-        <v>6.8170519512801397E-2</v>
+        <v>0.05084535827088623</v>
       </c>
       <c r="K2">
-        <v>5.1782942462224008E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.05101630915079939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.9139167862266855E-2</v>
+        <v>0.1111348883657893</v>
       </c>
       <c r="C3">
-        <v>3.222909305064782E-2</v>
+        <v>0.04009402067166822</v>
       </c>
       <c r="D3">
-        <v>0.128470783257356</v>
+        <v>0.1456331249905413</v>
       </c>
       <c r="E3">
-        <v>0.11652028070794899</v>
+        <v>0.1205337998936517</v>
       </c>
       <c r="F3">
-        <v>1.530220632665393E-2</v>
+        <v>0.01687247099577441</v>
       </c>
       <c r="G3">
-        <v>0.35084395023560799</v>
+        <v>0.3349160609256137</v>
       </c>
       <c r="H3">
-        <v>0.14063734527258359</v>
+        <v>0.1921194322075379</v>
       </c>
       <c r="I3">
-        <v>4.0429804091821793E-2</v>
+        <v>0.0460362118255661</v>
       </c>
       <c r="J3">
-        <v>5.3815560526969917E-2</v>
+        <v>0.0602433888648046</v>
       </c>
       <c r="K3">
-        <v>0.17271892125909419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1601456843683886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.724533715925395E-2</v>
+        <v>0.01808973535915543</v>
       </c>
       <c r="C4">
-        <v>2.1157243816254421E-2</v>
+        <v>0.02079402389155424</v>
       </c>
       <c r="D4">
-        <v>0.11951289489623509</v>
+        <v>0.1171966039620443</v>
       </c>
       <c r="E4">
-        <v>0.12141942887407869</v>
+        <v>0.1192816343333505</v>
       </c>
       <c r="F4">
-        <v>2.454558816324531E-2</v>
+        <v>0.02206112911173159</v>
       </c>
       <c r="G4">
-        <v>4.5401281507890988E-2</v>
+        <v>0.04440847905893498</v>
       </c>
       <c r="H4">
-        <v>1.5801948907031869E-2</v>
+        <v>0.01786588350465003</v>
       </c>
       <c r="I4">
-        <v>8.6286427524827694E-3</v>
+        <v>0.01159413713300358</v>
       </c>
       <c r="J4">
-        <v>5.6466981522909937E-2</v>
+        <v>0.04464451600916579</v>
       </c>
       <c r="K4">
-        <v>0.14543361878715561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1285227140855003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.7618364418938309E-2</v>
+        <v>0.0438405021756188</v>
       </c>
       <c r="C5">
-        <v>2.1054181389870441E-3</v>
+        <v>0.002678945165341147</v>
       </c>
       <c r="D5">
-        <v>1.721444738436036E-2</v>
+        <v>0.02267052075608759</v>
       </c>
       <c r="E5">
-        <v>1.191684689058569E-3</v>
+        <v>0.0006518122094718606</v>
       </c>
       <c r="F5">
-        <v>1.0778501788251431E-3</v>
+        <v>0.001403550684604243</v>
       </c>
       <c r="G5">
-        <v>7.1181031688648436E-2</v>
+        <v>0.0838093734316053</v>
       </c>
       <c r="H5">
-        <v>4.8722675796681589E-2</v>
+        <v>0.05384238864415076</v>
       </c>
       <c r="I5">
-        <v>6.674987789656482E-3</v>
+        <v>0.008258837409810774</v>
       </c>
       <c r="J5">
-        <v>6.2142679592344019E-3</v>
+        <v>0.00844584133275531</v>
       </c>
       <c r="K5">
-        <v>1.2945735615556E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0156351820608268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.9885222381635578E-2</v>
+        <v>0.02030102004422569</v>
       </c>
       <c r="C6">
-        <v>0.4123822143698469</v>
+        <v>0.382812248446405</v>
       </c>
       <c r="D6">
-        <v>6.9176575600114767E-2</v>
+        <v>0.06772401894759145</v>
       </c>
       <c r="E6">
-        <v>0.13258595577525711</v>
+        <v>0.1273435221873445</v>
       </c>
       <c r="F6">
-        <v>2.6293011938007281E-2</v>
+        <v>0.02860854374150777</v>
       </c>
       <c r="G6">
-        <v>4.0714054202298733E-2</v>
+        <v>0.04375997428537594</v>
       </c>
       <c r="H6">
-        <v>2.2122728469844619E-2</v>
+        <v>0.02728830151737641</v>
       </c>
       <c r="I6">
-        <v>0.1751234601400119</v>
+        <v>0.1579616100195126</v>
       </c>
       <c r="J6">
-        <v>2.3489932885906041E-2</v>
+        <v>0.02453242088313618</v>
       </c>
       <c r="K6">
-        <v>0.14446216064960979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1406720048561456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.65457675753228117</v>
+        <v>0.6352236250802482</v>
       </c>
       <c r="C7">
-        <v>0.1738221436984688</v>
+        <v>0.171510448530122</v>
       </c>
       <c r="D7">
-        <v>3.659663999489942E-2</v>
+        <v>0.03874267899571712</v>
       </c>
       <c r="E7">
-        <v>0.16493798825969899</v>
+        <v>0.1531930221787681</v>
       </c>
       <c r="F7">
-        <v>0.56748811915143793</v>
+        <v>0.5806220417183043</v>
       </c>
       <c r="G7">
-        <v>0.13187813209005461</v>
+        <v>0.1362875075423925</v>
       </c>
       <c r="H7">
-        <v>0.51461680273900445</v>
+        <v>0.4416299559471366</v>
       </c>
       <c r="I7">
-        <v>0.11683942041569439</v>
+        <v>0.1031447111675818</v>
       </c>
       <c r="J7">
-        <v>0.19013588532604189</v>
+        <v>0.1872948535331641</v>
       </c>
       <c r="K7">
-        <v>6.4464694888229521E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.07165939137498549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.2223816355810616E-3</v>
+        <v>0.007204508167486982</v>
       </c>
       <c r="C8">
-        <v>1.5326855123674909E-2</v>
+        <v>0.01481791544579322</v>
       </c>
       <c r="D8">
-        <v>8.1290445981701681E-3</v>
+        <v>0.007824205094056933</v>
       </c>
       <c r="E8">
-        <v>1.354989627929558E-2</v>
+        <v>0.01325923257688811</v>
       </c>
       <c r="F8">
-        <v>1.5726813972857769E-2</v>
+        <v>0.01157929314798501</v>
       </c>
       <c r="G8">
-        <v>2.293749532523873E-3</v>
+        <v>0.00206957610344497</v>
       </c>
       <c r="H8">
-        <v>1.2641559125625489E-2</v>
+        <v>0.01737640724424865</v>
       </c>
       <c r="I8">
-        <v>4.8298692136538772E-3</v>
+        <v>0.004764713890275446</v>
       </c>
       <c r="J8">
-        <v>2.3821360510398542E-3</v>
+        <v>0.002028240540038397</v>
       </c>
       <c r="K8">
-        <v>6.4095118422858831E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.006945002365585639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.6714490674318508E-2</v>
+        <v>0.04622298309437192</v>
       </c>
       <c r="C9">
-        <v>8.2597173144876319E-3</v>
+        <v>0.00899636152880188</v>
       </c>
       <c r="D9">
-        <v>3.6787911632503417E-2</v>
+        <v>0.0454167108070887</v>
       </c>
       <c r="E9">
-        <v>1.5491900957761401E-2</v>
+        <v>0.01494022195921028</v>
       </c>
       <c r="F9">
-        <v>1.6820995214998451E-3</v>
+        <v>0.00213518880742986</v>
       </c>
       <c r="G9">
-        <v>7.3948490363758751E-2</v>
+        <v>0.07067010280210453</v>
       </c>
       <c r="H9">
-        <v>2.6336581511719779E-2</v>
+        <v>0.03108174253548703</v>
       </c>
       <c r="I9">
-        <v>7.6518152710696261E-3</v>
+        <v>0.008281526523573989</v>
       </c>
       <c r="J9">
-        <v>2.324136216753666E-2</v>
+        <v>0.02836440205610949</v>
       </c>
       <c r="K9">
-        <v>8.4041688225293815E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.08738384081840336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.893830703012913E-2</v>
+        <v>0.02208431414508881</v>
       </c>
       <c r="C10">
-        <v>0.2148409893992933</v>
+        <v>0.2579708278326947</v>
       </c>
       <c r="D10">
-        <v>7.1184927794956804E-2</v>
+        <v>0.1010336425685185</v>
       </c>
       <c r="E10">
-        <v>0.13452796045372289</v>
+        <v>0.1322149608055027</v>
       </c>
       <c r="F10">
-        <v>2.4643574543138501E-2</v>
+        <v>0.02940737312051125</v>
       </c>
       <c r="G10">
-        <v>4.593732080081777E-2</v>
+        <v>0.06301210730216375</v>
       </c>
       <c r="H10">
-        <v>1.7645509612852248E-2</v>
+        <v>0.02826725403817915</v>
       </c>
       <c r="I10">
-        <v>0.1056059043794432</v>
+        <v>0.1323682896946045</v>
       </c>
       <c r="J10">
-        <v>1.980280056342696E-2</v>
+        <v>0.02800829875518672</v>
       </c>
       <c r="K10">
-        <v>0.134314646843289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1618462280067486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.1994261119081782E-2</v>
+        <v>0.03513802696340681</v>
       </c>
       <c r="C11">
-        <v>4.6186690223792702E-2</v>
+        <v>0.03973983320990437</v>
       </c>
       <c r="D11">
-        <v>0.35538270266823929</v>
+        <v>0.3080799673108646</v>
       </c>
       <c r="E11">
-        <v>0.22416913095290639</v>
+        <v>0.2507418652120962</v>
       </c>
       <c r="F11">
-        <v>7.9613933663220809E-2</v>
+        <v>0.08963313574126887</v>
       </c>
       <c r="G11">
-        <v>0.2249245805180882</v>
+        <v>0.2090553823076619</v>
       </c>
       <c r="H11">
-        <v>0.10323939952594149</v>
+        <v>0.1058492413117964</v>
       </c>
       <c r="I11">
-        <v>0.50800455852824655</v>
+        <v>0.5098470753732359</v>
       </c>
       <c r="J11">
-        <v>0.55628055348413286</v>
+        <v>0.5655926797547532</v>
       </c>
       <c r="K11">
-        <v>0.18332048615144189</v>
+        <v>0.1761736429126162</v>
       </c>
     </row>
   </sheetData>
